--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -297,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +329,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,6 +949,107 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6">
+        <v>50</v>
+      </c>
+      <c r="G26" s="6">
+        <v>60</v>
+      </c>
+      <c r="H26" s="6">
+        <v>70</v>
+      </c>
+      <c r="I26" s="6">
+        <v>80</v>
+      </c>
+      <c r="J26" s="6">
+        <v>90</v>
+      </c>
+      <c r="K26" s="6">
+        <v>100</v>
+      </c>
+      <c r="L26" s="6">
+        <f>SUM(B26:K26)</f>
+        <v>550</v>
+      </c>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merged</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,6 +302,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -305,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,6 +352,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,11 +649,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1050,7 +1076,81 @@
       <c r="L27" s="7"/>
       <c r="M27" s="11"/>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="13">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6">
+        <v>20</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="6">
+        <v>30</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,80 +118,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Number?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulong?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime
+ (Formula)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DateTime
  (Number)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Number?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>short?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulong?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ushort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ushort?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DateTime
  (Formula)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merged</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,16 +362,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,7 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -674,7 +685,7 @@
     </row>
     <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -683,10 +694,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -735,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -784,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -808,7 +819,7 @@
         <v>22</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -872,7 +883,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -880,40 +891,40 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="M20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -977,7 +988,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1015,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -1078,7 +1089,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1091,7 +1102,7 @@
       <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -1102,54 +1113,54 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="15">
         <v>10</v>
       </c>
       <c r="C31" s="6">
         <v>20</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="6">
         <v>30</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fetch" sheetId="1" r:id="rId1"/>
+    <sheet name="2D" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +202,34 @@
   <si>
     <t>DateTime
  (Formula)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +405,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1166,4 +1201,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="18">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18">
+        <v>6</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>Material 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +406,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,10 +425,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1148,40 +1166,40 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="17">
         <v>10</v>
       </c>
       <c r="C31" s="6">
         <v>20</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="6">
         <v>30</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1205,63 +1223,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14">
         <v>6</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>0</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,9 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,40 +1166,40 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="18">
         <v>10</v>
       </c>
       <c r="C31" s="6">
         <v>20</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="6">
         <v>30</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1223,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,23 +1282,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="7" t="s">
         <v>52</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="A8" s="7">
         <v>0</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="7">
@@ -1328,7 +1328,7 @@
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="7">
@@ -1343,7 +1343,7 @@
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="7"/>
@@ -1354,9 +1354,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Product C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,29 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,40 +1188,40 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>10</v>
       </c>
       <c r="C31" s="6">
         <v>20</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="6">
         <v>30</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1226,14 +1248,14 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>45</v>
@@ -1242,7 +1264,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,7 +1293,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14">
@@ -1282,39 +1304,39 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>0</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1325,11 +1347,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>48</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -1340,11 +1362,11 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>51</v>
+      <c r="A10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1355,10 +1377,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="20"/>
+      <c r="A12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="15" t="s">
         <v>45</v>
       </c>
@@ -1366,15 +1388,15 @@
         <v>46</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>0</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="15" t="s">
         <v>47</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1385,11 +1407,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -1400,11 +1422,11 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>51</v>
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7">

--- a/ExcelSharp.Test/excel-sharp.xlsx
+++ b/ExcelSharp.Test/excel-sharp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>2000-1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1252,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1316,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>49</v>
